--- a/堆栈图/堆栈图.xlsx
+++ b/堆栈图/堆栈图.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12105" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="堆栈图演示" sheetId="1" r:id="rId1"/>
     <sheet name="堆栈图练习一" sheetId="2" r:id="rId2"/>
+    <sheet name="堆栈图练习二" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>0019FF40</t>
   </si>
@@ -131,7 +132,7 @@
     <t>POP EBP</t>
   </si>
   <si>
-    <t>RET</t>
+    <t>RETN</t>
   </si>
   <si>
     <t>ADD ESP,8</t>
@@ -198,6 +199,63 @@
   </si>
   <si>
     <t>EIP 00401097</t>
+  </si>
+  <si>
+    <t>EBP==ESP:0019FEE4</t>
+  </si>
+  <si>
+    <t>0040118B</t>
+  </si>
+  <si>
+    <t>PUSH 6</t>
+  </si>
+  <si>
+    <t>CALL 00401005</t>
+  </si>
+  <si>
+    <t>PUSH 5</t>
+  </si>
+  <si>
+    <t>EIP 00401005</t>
+  </si>
+  <si>
+    <t>ESP:0019FE90</t>
+  </si>
+  <si>
+    <t>ESP:0019FE9C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SUB ESP,48</t>
+  </si>
+  <si>
+    <t>LEA EDI,DWORD PTR SS:[EBP-48]</t>
+  </si>
+  <si>
+    <t>MOV ECX,12</t>
+  </si>
+  <si>
+    <t>MOV DWORD PTR SS:[EBP-4],0A</t>
+  </si>
+  <si>
+    <t>MOV DWORD PTR SS:[EBP-8],5</t>
+  </si>
+  <si>
+    <t>EDI 0019FE9C</t>
+  </si>
+  <si>
+    <t>EDI 0019FEE4</t>
+  </si>
+  <si>
+    <t>SUB EAX,DWORD PTR SS:[EBP-8]</t>
+  </si>
+  <si>
+    <t>ADD EAX,DWORD PTR SS:[EBP-4]</t>
+  </si>
+  <si>
+    <t>EIP:0040118B</t>
   </si>
 </sst>
 </file>
@@ -205,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -238,99 +296,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -345,11 +312,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,13 +435,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,7 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +545,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,19 +611,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,25 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,49 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,12 +678,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,25 +707,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +732,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,22 +764,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,127 +823,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,8 +949,11 @@
     <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,9 +967,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -920,7 +975,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,24 +984,21 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -954,9 +1006,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="1">
@@ -1290,8 +1339,8 @@
   </sheetPr>
   <dimension ref="B2:U81"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1309,23 +1358,23 @@
       <c r="B3" s="2"/>
       <c r="E3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1334,7 +1383,7 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="4">
@@ -1357,59 +1406,59 @@
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="8:8">
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1424,313 +1473,313 @@
     <row r="16" spans="2:20">
       <c r="B16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="S17" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="2"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="P19" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="20" t="s">
+      <c r="I19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="P19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="2"/>
-      <c r="F20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="P20" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="20" t="s">
+      <c r="F20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="P20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="2"/>
-      <c r="F21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="P21" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" s="20" t="s">
+      <c r="F21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="P21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="2"/>
-      <c r="F22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="P22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S22" s="20" t="s">
+      <c r="F22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="P22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="2"/>
-      <c r="F23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="P23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="20" t="s">
+      <c r="F23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="P23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:19">
       <c r="B24" s="2"/>
-      <c r="F24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="P24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" s="20" t="s">
+      <c r="F24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="P24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:19">
       <c r="B25" s="2"/>
-      <c r="F25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="P25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S25" s="20" t="s">
+      <c r="F25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="P25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:19">
       <c r="B26" s="2"/>
-      <c r="F26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="P26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="20" t="s">
+      <c r="F26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="P26" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:19">
       <c r="B27" s="2"/>
-      <c r="F27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="P27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" s="20" t="s">
+      <c r="F27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="P27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:19">
       <c r="B28" s="2"/>
-      <c r="F28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="P28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" s="20" t="s">
+      <c r="F28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="P28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:19">
       <c r="B29" s="2"/>
-      <c r="F29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="P29" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S29" s="20" t="s">
+      <c r="F29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="P29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:19">
       <c r="B30" s="2"/>
-      <c r="F30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="P30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S30" s="20" t="s">
+      <c r="F30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="P30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:19">
       <c r="B31" s="2"/>
-      <c r="F31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="P31" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="20" t="s">
+      <c r="F31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="P31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:19">
       <c r="B32" s="2"/>
-      <c r="F32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="P32" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S32" s="20" t="s">
+      <c r="F32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="P32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="2"/>
-      <c r="F33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="P33" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S33" s="20" t="s">
+      <c r="F33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="P33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:19">
       <c r="B34" s="2"/>
-      <c r="F34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="P34" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S34" s="20" t="s">
+      <c r="F34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="P34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S34" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="P35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="18" t="s">
+      <c r="S35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:19">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="21" t="s">
+      <c r="P36" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S36" s="21" t="s">
+      <c r="S36" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1775,73 +1824,73 @@
       </c>
     </row>
     <row r="39" spans="2:19">
-      <c r="B39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="S39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="S39" s="5"/>
     </row>
     <row r="40" spans="2:19">
-      <c r="B40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="S40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="S40" s="5"/>
     </row>
     <row r="41" spans="2:19">
-      <c r="B41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="S41" s="6"/>
+      <c r="B41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="S41" s="5"/>
     </row>
     <row r="43" spans="2:19">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="S43" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="9:19">
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="9:16">
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="P45" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="16:16">
-      <c r="P47" s="13" t="s">
+      <c r="P47" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1853,397 +1902,397 @@
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="I50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="19" t="s">
+      <c r="L50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O50" s="19" t="s">
+      <c r="O50" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O51" s="19" t="s">
+      <c r="O51" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I52" s="19" t="s">
+      <c r="I52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O52" s="19" t="s">
+      <c r="O52" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O53" s="20" t="s">
+      <c r="E53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O53" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O54" s="20" t="s">
+      <c r="B54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O55" s="20" t="s">
+      <c r="B55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O56" s="20" t="s">
+      <c r="B56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57" s="20" t="s">
+      <c r="B57" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:21">
-      <c r="B58" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O58" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q58" s="15" t="s">
+      <c r="B58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q58" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
     </row>
     <row r="59" spans="2:21">
-      <c r="B59" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O59" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
+      <c r="B59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
     </row>
     <row r="60" spans="2:21">
-      <c r="B60" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O60" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15" t="s">
+      <c r="B60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
     </row>
     <row r="61" spans="2:21">
-      <c r="B61" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O61" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15" t="s">
+      <c r="B61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62" s="20" t="s">
+      <c r="B62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O63" s="20" t="s">
+      <c r="B63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O64" s="20" t="s">
+      <c r="B64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O64" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="2:15">
-      <c r="B65" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O65" s="20" t="s">
+      <c r="B65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O65" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O66" s="20" t="s">
+      <c r="B66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O67" s="20" t="s">
+      <c r="B67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O67" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="2:15">
-      <c r="B68" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O68" s="20" t="s">
+      <c r="B68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I69" s="18" t="s">
+      <c r="I69" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L69" s="18" t="s">
+      <c r="L69" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O69" s="18" t="s">
+      <c r="O69" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="21" t="s">
+      <c r="E70" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="J70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L70" s="21" t="s">
+      <c r="L70" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="O70" s="21" t="s">
+      <c r="O70" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2260,7 +2309,7 @@
       <c r="L71" s="4">
         <v>1</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O71" s="4">
@@ -2285,73 +2334,73 @@
       </c>
     </row>
     <row r="73" spans="2:16">
-      <c r="B73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="5" t="s">
+      <c r="B73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="O74" s="6"/>
+      <c r="B74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="O74" s="5"/>
     </row>
     <row r="75" spans="2:16">
-      <c r="B75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="5" t="s">
+      <c r="B75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="5" t="s">
+      <c r="L75" s="5"/>
+      <c r="M75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="5" t="s">
+      <c r="O75" s="5"/>
+      <c r="P75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L77" s="5" t="s">
+      <c r="L77" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="O77" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L78" s="13" t="s">
+      <c r="L78" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="79" spans="2:12">
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L79" s="13" t="s">
+      <c r="L79" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="81" spans="12:12">
-      <c r="L81" s="5" t="s">
+      <c r="L81" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2368,8 +2417,8 @@
   </sheetPr>
   <dimension ref="B2:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U71" sqref="U71"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2388,16 +2437,16 @@
       <c r="B3" s="2"/>
       <c r="E3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2407,7 +2456,7 @@
       <c r="H4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -2422,7 +2471,7 @@
       <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="4">
@@ -2466,427 +2515,1530 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="2"/>
+      <c r="E17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="2"/>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="2"/>
+      <c r="E19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="L20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="L30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="L31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="L32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="L34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="L35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="L38" s="4">
+        <v>2</v>
+      </c>
+      <c r="P38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4">
+        <v>3</v>
+      </c>
+      <c r="P39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4">
+        <v>4</v>
+      </c>
+      <c r="H40" s="4">
+        <v>4</v>
+      </c>
+      <c r="L40" s="4">
+        <v>4</v>
+      </c>
+      <c r="P40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="P41" s="5"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="B43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="P43" s="5"/>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16">
+      <c r="E46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16">
+      <c r="E47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
+      <c r="B60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+    </row>
+    <row r="61" spans="2:19">
+      <c r="B61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+    </row>
+    <row r="62" spans="2:19">
+      <c r="B62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+    </row>
+    <row r="63" spans="2:19">
+      <c r="B63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+    </row>
+    <row r="64" spans="2:19">
+      <c r="B64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="4">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2</v>
+      </c>
+      <c r="K73" s="4">
+        <v>2</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="4">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4">
+        <v>3</v>
+      </c>
+      <c r="H74" s="4">
+        <v>3</v>
+      </c>
+      <c r="K74" s="4">
+        <v>3</v>
+      </c>
+      <c r="N74" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="4">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4">
+        <v>4</v>
+      </c>
+      <c r="H75" s="4">
+        <v>4</v>
+      </c>
+      <c r="K75" s="4">
+        <v>4</v>
+      </c>
+      <c r="N75" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B2:S86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="T76" sqref="T76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="H5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="2"/>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="2"/>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="6"/>
       <c r="E9" s="6"/>
       <c r="H9" s="6"/>
       <c r="K9" s="6"/>
       <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8">
-      <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>52</v>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="8"/>
-      <c r="E17" s="9" t="s">
+      <c r="B17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="9" t="s">
+      <c r="I17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="9" t="s">
+      <c r="M17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>53</v>
+      <c r="Q17" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="8"/>
-      <c r="E18" s="9" t="s">
+      <c r="B18" s="7"/>
+      <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="8"/>
-      <c r="E19" s="9" t="s">
+      <c r="B19" s="7"/>
+      <c r="E19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="10"/>
-      <c r="C20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="L20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P20" s="14" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="L20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="L21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="14" t="s">
+      <c r="B21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="L21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="L22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="14" t="s">
+      <c r="B22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="L22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="L23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P23" s="14" t="s">
+      <c r="B23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="L23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="L24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="14" t="s">
+      <c r="B24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="L24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="L25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="14" t="s">
+      <c r="B25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="L25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="L26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26" s="14" t="s">
+      <c r="B26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="L27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" s="14" t="s">
+      <c r="B27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="L28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="14" t="s">
+      <c r="B28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="L29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P29" s="14" t="s">
+      <c r="B29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="L30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P30" s="14" t="s">
+      <c r="B30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="L30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="L31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" s="14" t="s">
+      <c r="B31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="L31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:16">
-      <c r="B32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="L32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P32" s="14" t="s">
+      <c r="B32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="L32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:16">
-      <c r="B33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="L33" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P33" s="14" t="s">
+      <c r="B33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="L33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="2:16">
-      <c r="B34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="L34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="14" t="s">
+      <c r="B34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="L34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="L35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="12" t="s">
+      <c r="B35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="L35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="L36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P36" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="L37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="12" t="s">
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P36" s="12" t="s">
+      <c r="M38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="H38" s="4">
-        <v>2</v>
-      </c>
-      <c r="L38" s="4">
-        <v>2</v>
-      </c>
-      <c r="P38" s="4">
-        <v>2</v>
+      <c r="Q38" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:16">
-      <c r="B39" s="4">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4">
-        <v>3</v>
-      </c>
-      <c r="H39" s="4">
-        <v>3</v>
-      </c>
-      <c r="L39" s="4">
-        <v>3</v>
-      </c>
-      <c r="P39" s="4">
-        <v>3</v>
+      <c r="B39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P40" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:16">
-      <c r="B41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="B41" s="4">
+        <v>6</v>
+      </c>
+      <c r="E41" s="4">
+        <v>6</v>
+      </c>
+      <c r="H41" s="4">
+        <v>6</v>
+      </c>
+      <c r="L41" s="4">
+        <v>6</v>
+      </c>
+      <c r="P41" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="B42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="P42" s="5"/>
     </row>
     <row r="43" spans="2:16">
       <c r="B43" s="6"/>
@@ -2895,582 +4047,631 @@
       <c r="L43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="5" t="s">
+    <row r="44" spans="2:16">
+      <c r="B44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="P44" s="5"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P45" s="5" t="s">
+      <c r="H46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16">
+      <c r="E47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16">
+      <c r="E48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="5:16">
-      <c r="E46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" s="5" t="s">
+    <row r="49" spans="16:16">
+      <c r="P49" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="5:16">
-      <c r="E47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="12:12">
-      <c r="L49" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="N51" s="8"/>
+    <row r="50" spans="12:16">
+      <c r="L50" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="16:16">
+      <c r="P51" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="N52" s="7"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="E52" s="9" t="s">
+      <c r="E53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="N53" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="9" t="s">
+    <row r="54" spans="2:14">
+      <c r="B54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="K54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N53" s="9" t="s">
+      <c r="N54" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="9" t="s">
+    <row r="55" spans="2:14">
+      <c r="B55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="K55" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N55" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="K55" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N56" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14">
-      <c r="B57" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N57" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N58" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>18</v>
-      </c>
+    <row r="56" spans="2:19">
+      <c r="B56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="B57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
     </row>
     <row r="60" spans="2:19">
-      <c r="B60" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N60" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
+      <c r="B60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
     </row>
     <row r="61" spans="2:19">
-      <c r="B61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N61" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
+      <c r="B61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
     </row>
     <row r="62" spans="2:19">
-      <c r="B62" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-    </row>
-    <row r="63" spans="2:19">
-      <c r="B63" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-    </row>
-    <row r="64" spans="2:19">
-      <c r="B64" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N64" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
+      <c r="B62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N65" s="14" t="s">
+      <c r="B65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N66" s="14" t="s">
+      <c r="B66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N67" s="14" t="s">
+      <c r="B67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N68" s="14" t="s">
+      <c r="B68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N69" s="14" t="s">
+      <c r="B69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K70" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N70" s="14" t="s">
+      <c r="B70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="12">
+        <v>5</v>
+      </c>
+      <c r="E72" s="12">
+        <v>5</v>
+      </c>
+      <c r="H72" s="12">
+        <v>5</v>
+      </c>
+      <c r="K72" s="12">
+        <v>5</v>
+      </c>
+      <c r="N72" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="C74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H71" s="12" t="s">
+      <c r="F74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K71" s="12" t="s">
+      <c r="K74" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N71" s="12" t="s">
+      <c r="N74" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="4">
-        <v>2</v>
-      </c>
-      <c r="E73" s="4">
-        <v>2</v>
-      </c>
-      <c r="H73" s="4">
-        <v>2</v>
-      </c>
-      <c r="K73" s="4">
-        <v>2</v>
-      </c>
-      <c r="L73" s="5" t="s">
+    <row r="75" spans="2:14">
+      <c r="B75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="4">
+      <c r="K75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="4">
-        <v>3</v>
-      </c>
-      <c r="H74" s="4">
-        <v>3</v>
-      </c>
-      <c r="K74" s="4">
-        <v>3</v>
-      </c>
-      <c r="N74" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="4">
-        <v>4</v>
-      </c>
-      <c r="E75" s="4">
-        <v>4</v>
-      </c>
-      <c r="H75" s="4">
-        <v>4</v>
-      </c>
-      <c r="K75" s="4">
-        <v>4</v>
-      </c>
-      <c r="N75" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15">
-      <c r="B76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="5" t="s">
+      <c r="N75" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="4">
         <v>5</v>
       </c>
+      <c r="E76" s="4">
+        <v>5</v>
+      </c>
+      <c r="H76" s="4">
+        <v>5</v>
+      </c>
+      <c r="K76" s="4">
+        <v>5</v>
+      </c>
+      <c r="N76" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="77" spans="2:14">
-      <c r="B77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="N77" s="6"/>
+      <c r="B77" s="4">
+        <v>6</v>
+      </c>
+      <c r="E77" s="4">
+        <v>6</v>
+      </c>
+      <c r="H77" s="4">
+        <v>6</v>
+      </c>
+      <c r="K77" s="4">
+        <v>6</v>
+      </c>
+      <c r="N77" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="78" spans="2:15">
-      <c r="B78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="5" t="s">
+      <c r="B78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K78" s="6"/>
-      <c r="L78" s="5" t="s">
+      <c r="K80" s="5"/>
+      <c r="L80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N78" s="6"/>
-      <c r="O78" s="5" t="s">
+      <c r="N80" s="5"/>
+      <c r="O80" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="2:14">
-      <c r="B80" s="5" t="s">
+    <row r="82" spans="2:14">
+      <c r="B82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K80" s="5" t="s">
+      <c r="K82" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N80" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="5" t="s">
+      <c r="N82" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K81" s="13" t="s">
+      <c r="K83" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="5" t="s">
+    <row r="84" spans="2:11">
+      <c r="B84" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K82" s="13" t="s">
+      <c r="K84" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="11:11">
-      <c r="K84" s="5" t="s">
-        <v>60</v>
+    <row r="86" spans="11:11">
+      <c r="K86" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/堆栈图/堆栈图.xlsx
+++ b/堆栈图/堆栈图.xlsx
@@ -296,6 +296,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -312,99 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +419,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -428,13 +435,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,7 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +545,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,79 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,43 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,16 +707,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +732,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,30 +786,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -811,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,133 +823,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3533,8 +3533,8 @@
   </sheetPr>
   <dimension ref="B2:S86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="T76" sqref="T76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I35" workbookViewId="0">
+      <selection activeCell="AC74" sqref="AC74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
